--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/contact/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="387">
   <si>
     <t>list_name</t>
   </si>
@@ -1172,55 +1188,65 @@
   <si>
     <t>../../../inputs/user/facility_id</t>
   </si>
+  <si>
+    <t>chw_rdt</t>
+  </si>
+  <si>
+    <t>Rdt CHW</t>
+  </si>
+  <si>
+    <t>ASC Tdr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Inherit"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1229,7 +1255,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1293,105 +1319,101 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1581,51 +1603,53 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AR60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="61.14"/>
-    <col customWidth="1" min="4" max="4" width="51.0"/>
-    <col customWidth="1" min="5" max="5" width="49.57"/>
-    <col customWidth="1" min="6" max="6" width="34.71"/>
-    <col customWidth="1" min="7" max="7" width="29.57"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="23.14"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="19.57"/>
-    <col customWidth="1" min="13" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="20" width="8.71"/>
-    <col customWidth="1" min="21" max="21" width="15.43"/>
-    <col customWidth="1" min="22" max="22" width="36.71"/>
-    <col customWidth="1" min="23" max="23" width="8.71"/>
-    <col customWidth="1" min="24" max="24" width="19.71"/>
-    <col customWidth="1" min="25" max="25" width="19.43"/>
-    <col customWidth="1" min="26" max="26" width="12.29"/>
-    <col customWidth="1" min="27" max="27" width="12.86"/>
-    <col customWidth="1" min="28" max="28" width="26.0"/>
-    <col customWidth="1" min="29" max="29" width="12.0"/>
-    <col customWidth="1" min="30" max="30" width="12.14"/>
-    <col customWidth="1" min="31" max="44" width="8.71"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.5" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="26" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" customWidth="1"/>
+    <col min="31" max="44" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1735,7 +1759,7 @@
       <c r="AQ1" s="26"/>
       <c r="AR1" s="26"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
@@ -1799,7 +1823,7 @@
       <c r="AQ2" s="30"/>
       <c r="AR2" s="30"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>51</v>
       </c>
@@ -1861,7 +1885,7 @@
       <c r="AQ3" s="30"/>
       <c r="AR3" s="30"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>68</v>
       </c>
@@ -1923,7 +1947,7 @@
       <c r="AQ4" s="30"/>
       <c r="AR4" s="30"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>68</v>
       </c>
@@ -1985,7 +2009,7 @@
       <c r="AQ5" s="30"/>
       <c r="AR5" s="30"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>68</v>
       </c>
@@ -2047,7 +2071,7 @@
       <c r="AQ6" s="30"/>
       <c r="AR6" s="30"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +2119,7 @@
       <c r="AQ7" s="30"/>
       <c r="AR7" s="30"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>112</v>
       </c>
@@ -2143,7 +2167,7 @@
       <c r="AQ8" s="30"/>
       <c r="AR8" s="30"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2189,7 +2213,7 @@
       <c r="AQ9" s="26"/>
       <c r="AR9" s="26"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
@@ -2255,7 +2279,7 @@
       <c r="AQ10" s="29"/>
       <c r="AR10" s="29"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>150</v>
       </c>
@@ -2309,7 +2333,7 @@
       <c r="AQ11" s="29"/>
       <c r="AR11" s="29"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>150</v>
       </c>
@@ -2361,7 +2385,7 @@
       <c r="AQ12" s="29"/>
       <c r="AR12" s="29"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2445,7 @@
       <c r="AQ13" s="29"/>
       <c r="AR13" s="29"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>68</v>
       </c>
@@ -2487,7 +2511,7 @@
       <c r="AQ14" s="29"/>
       <c r="AR14" s="29"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2551,7 +2575,7 @@
       <c r="AQ15" s="29"/>
       <c r="AR15" s="29"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>197</v>
       </c>
@@ -2613,7 +2637,7 @@
       <c r="AQ16" s="29"/>
       <c r="AR16" s="29"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>205</v>
       </c>
@@ -2681,7 +2705,7 @@
       <c r="AQ17" s="29"/>
       <c r="AR17" s="29"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>214</v>
       </c>
@@ -2749,7 +2773,7 @@
       <c r="AQ18" s="29"/>
       <c r="AR18" s="29"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>223</v>
       </c>
@@ -2819,7 +2843,7 @@
       <c r="AQ19" s="29"/>
       <c r="AR19" s="29"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>234</v>
       </c>
@@ -2889,7 +2913,7 @@
       <c r="AQ20" s="29"/>
       <c r="AR20" s="29"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>244</v>
       </c>
@@ -2959,7 +2983,7 @@
       <c r="AQ21" s="29"/>
       <c r="AR21" s="29"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3007,7 +3031,7 @@
       <c r="AQ22" s="38"/>
       <c r="AR22" s="38"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -3053,7 +3077,7 @@
       <c r="AQ23" s="26"/>
       <c r="AR23" s="26"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
@@ -3119,7 +3143,7 @@
       <c r="AQ24" s="29"/>
       <c r="AR24" s="29"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>150</v>
       </c>
@@ -3171,7 +3195,7 @@
       <c r="AQ25" s="38"/>
       <c r="AR25" s="38"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>192</v>
       </c>
@@ -3237,7 +3261,7 @@
       <c r="AQ26" s="29"/>
       <c r="AR26" s="29"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>192</v>
       </c>
@@ -3305,7 +3329,7 @@
       <c r="AQ27" s="29"/>
       <c r="AR27" s="29"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>68</v>
       </c>
@@ -3369,7 +3393,7 @@
       <c r="AQ28" s="29"/>
       <c r="AR28" s="29"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>68</v>
       </c>
@@ -3429,7 +3453,7 @@
       <c r="AQ29" s="29"/>
       <c r="AR29" s="29"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>150</v>
       </c>
@@ -3495,7 +3519,7 @@
       <c r="AQ30" s="29"/>
       <c r="AR30" s="29"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>150</v>
       </c>
@@ -3549,7 +3573,7 @@
       <c r="AQ31" s="29"/>
       <c r="AR31" s="29"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>51</v>
       </c>
@@ -3601,7 +3625,7 @@
       <c r="AQ32" s="29"/>
       <c r="AR32" s="29"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>287</v>
       </c>
@@ -3663,7 +3687,7 @@
       <c r="AQ33" s="29"/>
       <c r="AR33" s="29"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>197</v>
       </c>
@@ -3717,7 +3741,7 @@
       <c r="AQ34" s="29"/>
       <c r="AR34" s="29"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>296</v>
       </c>
@@ -3777,7 +3801,7 @@
       <c r="AQ35" s="29"/>
       <c r="AR35" s="29"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>296</v>
       </c>
@@ -3835,7 +3859,7 @@
       <c r="AQ36" s="29"/>
       <c r="AR36" s="29"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>305</v>
       </c>
@@ -3889,7 +3913,7 @@
       <c r="AQ37" s="29"/>
       <c r="AR37" s="29"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>150</v>
       </c>
@@ -3941,7 +3965,7 @@
       <c r="AQ38" s="29"/>
       <c r="AR38" s="29"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>150</v>
       </c>
@@ -3993,7 +4017,7 @@
       <c r="AQ39" s="29"/>
       <c r="AR39" s="29"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>150</v>
       </c>
@@ -4045,7 +4069,7 @@
       <c r="AQ40" s="29"/>
       <c r="AR40" s="29"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>150</v>
       </c>
@@ -4097,7 +4121,7 @@
       <c r="AQ41" s="29"/>
       <c r="AR41" s="29"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>150</v>
       </c>
@@ -4149,7 +4173,7 @@
       <c r="AQ42" s="29"/>
       <c r="AR42" s="29"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>197</v>
       </c>
@@ -4203,7 +4227,7 @@
       <c r="AQ43" s="29"/>
       <c r="AR43" s="29"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
         <v>112</v>
       </c>
@@ -4251,7 +4275,7 @@
       <c r="AQ44" s="29"/>
       <c r="AR44" s="29"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
         <v>321</v>
       </c>
@@ -4321,7 +4345,7 @@
       <c r="AQ45" s="29"/>
       <c r="AR45" s="29"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
         <v>321</v>
       </c>
@@ -4391,7 +4415,7 @@
       <c r="AQ46" s="29"/>
       <c r="AR46" s="29"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>339</v>
       </c>
@@ -4455,7 +4479,7 @@
       <c r="AQ47" s="29"/>
       <c r="AR47" s="29"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>346</v>
       </c>
@@ -4517,7 +4541,7 @@
       <c r="AQ48" s="38"/>
       <c r="AR48" s="38"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
         <v>68</v>
       </c>
@@ -4583,7 +4607,7 @@
       <c r="AQ49" s="38"/>
       <c r="AR49" s="38"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>68</v>
       </c>
@@ -4645,7 +4669,7 @@
       <c r="AQ50" s="38"/>
       <c r="AR50" s="38"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4733,7 @@
       <c r="AQ51" s="38"/>
       <c r="AR51" s="38"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>51</v>
       </c>
@@ -4773,7 +4797,7 @@
       <c r="AQ52" s="38"/>
       <c r="AR52" s="38"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>192</v>
       </c>
@@ -4837,7 +4861,7 @@
       <c r="AQ53" s="29"/>
       <c r="AR53" s="29"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>192</v>
       </c>
@@ -4901,7 +4925,7 @@
       <c r="AQ54" s="29"/>
       <c r="AR54" s="29"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>192</v>
       </c>
@@ -4965,7 +4989,7 @@
       <c r="AQ55" s="29"/>
       <c r="AR55" s="29"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>150</v>
       </c>
@@ -5017,7 +5041,7 @@
       <c r="AQ56" s="29"/>
       <c r="AR56" s="29"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>150</v>
       </c>
@@ -5069,7 +5093,7 @@
       <c r="AQ57" s="29"/>
       <c r="AR57" s="29"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
         <v>150</v>
       </c>
@@ -5121,7 +5145,7 @@
       <c r="AQ58" s="29"/>
       <c r="AR58" s="29"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>112</v>
       </c>
@@ -5169,7 +5193,7 @@
       <c r="AQ59" s="38"/>
       <c r="AR59" s="38"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
         <v>112</v>
       </c>
@@ -5218,35 +5242,35 @@
       <c r="AR60" s="38"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="4" width="27.71"/>
-    <col customWidth="1" min="5" max="6" width="26.71"/>
-    <col customWidth="1" min="7" max="7" width="39.29"/>
-    <col customWidth="1" min="8" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.14"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5316,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5336,7 +5360,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5404,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>63</v>
       </c>
@@ -5424,7 +5448,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -5468,7 +5492,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>91</v>
       </c>
@@ -5512,7 +5536,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>91</v>
       </c>
@@ -5556,7 +5580,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -5600,7 +5624,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
@@ -5644,7 +5668,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
@@ -5688,7 +5712,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
@@ -5732,7 +5756,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -5776,7 +5800,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
@@ -5820,7 +5844,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -5864,31 +5888,33 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="27"/>
+        <v>385</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>385</v>
+      </c>
       <c r="I15" s="29" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5908,31 +5934,31 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="29" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5952,31 +5978,31 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="29" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5996,32 +6022,74 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.71"/>
-    <col customWidth="1" min="3" max="3" width="20.0"/>
-    <col customWidth="1" min="4" max="15" width="7.71"/>
-    <col customWidth="1" min="16" max="26" width="15.14"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="26" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -6061,7 +6129,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -6069,8 +6137,8 @@
         <v>14</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2019-10-22_00-47</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2020-03-24 23-41</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
@@ -6102,7 +6170,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6130,7 +6198,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6158,7 +6226,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6186,7 +6254,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6214,7 +6282,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6242,7 +6310,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6270,7 +6338,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6298,7 +6366,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6326,7 +6394,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6354,7 +6422,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6382,7 +6450,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6410,7 +6478,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6438,7 +6506,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6466,7 +6534,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6494,7 +6562,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6522,7 +6590,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6550,7 +6618,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6578,7 +6646,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6606,7 +6674,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6634,7 +6702,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6662,7 +6730,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6690,7 +6758,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6718,7 +6786,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6746,7 +6814,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6774,7 +6842,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6802,7 +6870,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6830,7 +6898,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -6858,7 +6926,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6886,7 +6954,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6914,7 +6982,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6942,7 +7010,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6970,7 +7038,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6998,7 +7066,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7026,7 +7094,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -7054,7 +7122,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -7082,7 +7150,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -7110,7 +7178,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -7138,7 +7206,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -7166,7 +7234,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -7194,7 +7262,7 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -7222,7 +7290,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7250,7 +7318,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -7278,7 +7346,7 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -7306,7 +7374,7 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -7334,7 +7402,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -7362,7 +7430,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -7390,7 +7458,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -7418,7 +7486,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -7446,7 +7514,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -7474,7 +7542,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -7502,7 +7570,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -7530,7 +7598,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -7558,7 +7626,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -7586,7 +7654,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -7614,7 +7682,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7642,7 +7710,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7670,7 +7738,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -7698,7 +7766,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -7726,7 +7794,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -7754,7 +7822,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -7782,7 +7850,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -7810,7 +7878,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -7838,7 +7906,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -7866,7 +7934,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7894,7 +7962,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -7922,7 +7990,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -7950,7 +8018,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -7978,7 +8046,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -8006,7 +8074,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -8034,7 +8102,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -8062,7 +8130,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -8090,7 +8158,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -8118,7 +8186,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -8146,7 +8214,7 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -8174,7 +8242,7 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -8202,7 +8270,7 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -8230,7 +8298,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -8258,7 +8326,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -8286,7 +8354,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -8314,7 +8382,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -8342,7 +8410,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -8370,7 +8438,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -8398,7 +8466,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -8426,7 +8494,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -8454,7 +8522,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -8482,7 +8550,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -8510,7 +8578,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -8538,7 +8606,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -8566,7 +8634,7 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -8594,7 +8662,7 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -8622,7 +8690,7 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -8650,7 +8718,7 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -8678,7 +8746,7 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -8706,7 +8774,7 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8734,7 +8802,7 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -8762,7 +8830,7 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8790,7 +8858,7 @@
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -8818,7 +8886,7 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -8846,7 +8914,7 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8874,7 +8942,7 @@
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -8902,7 +8970,7 @@
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -8930,7 +8998,7 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -8958,7 +9026,7 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -8986,7 +9054,7 @@
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -9014,7 +9082,7 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -9042,7 +9110,7 @@
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -9070,7 +9138,7 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9098,7 +9166,7 @@
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -9126,7 +9194,7 @@
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -9154,7 +9222,7 @@
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -9182,7 +9250,7 @@
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -9210,7 +9278,7 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9238,7 +9306,7 @@
       <c r="Y114" s="6"/>
       <c r="Z114" s="6"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -9266,7 +9334,7 @@
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -9294,7 +9362,7 @@
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -9322,7 +9390,7 @@
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9350,7 +9418,7 @@
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -9378,7 +9446,7 @@
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -9406,7 +9474,7 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -9434,7 +9502,7 @@
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -9462,7 +9530,7 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -9490,7 +9558,7 @@
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -9518,7 +9586,7 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -9546,7 +9614,7 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -9574,7 +9642,7 @@
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -9602,7 +9670,7 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -9630,7 +9698,7 @@
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -9658,7 +9726,7 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -9686,7 +9754,7 @@
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -9714,7 +9782,7 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -9742,7 +9810,7 @@
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -9770,7 +9838,7 @@
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -9798,7 +9866,7 @@
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -9826,7 +9894,7 @@
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -9854,7 +9922,7 @@
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -9882,7 +9950,7 @@
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -9910,7 +9978,7 @@
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -9938,7 +10006,7 @@
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -9966,7 +10034,7 @@
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -9994,7 +10062,7 @@
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -10022,7 +10090,7 @@
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -10050,7 +10118,7 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -10078,7 +10146,7 @@
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -10106,7 +10174,7 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -10134,7 +10202,7 @@
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -10162,7 +10230,7 @@
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -10190,7 +10258,7 @@
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -10218,7 +10286,7 @@
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -10246,7 +10314,7 @@
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -10274,7 +10342,7 @@
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -10302,7 +10370,7 @@
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -10330,7 +10398,7 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -10358,7 +10426,7 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -10386,7 +10454,7 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -10414,7 +10482,7 @@
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -10442,7 +10510,7 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -10470,7 +10538,7 @@
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -10498,7 +10566,7 @@
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -10526,7 +10594,7 @@
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -10554,7 +10622,7 @@
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -10582,7 +10650,7 @@
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -10610,7 +10678,7 @@
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -10638,7 +10706,7 @@
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -10666,7 +10734,7 @@
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -10694,7 +10762,7 @@
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -10722,7 +10790,7 @@
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -10750,7 +10818,7 @@
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -10778,7 +10846,7 @@
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -10806,7 +10874,7 @@
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -10834,7 +10902,7 @@
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -10862,7 +10930,7 @@
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -10890,7 +10958,7 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -10918,7 +10986,7 @@
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -10946,7 +11014,7 @@
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -10974,7 +11042,7 @@
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -11002,7 +11070,7 @@
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -11030,7 +11098,7 @@
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -11058,7 +11126,7 @@
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -11086,7 +11154,7 @@
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -11114,7 +11182,7 @@
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -11142,7 +11210,7 @@
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -11170,7 +11238,7 @@
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -11198,7 +11266,7 @@
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -11226,7 +11294,7 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -11254,7 +11322,7 @@
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -11282,7 +11350,7 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -11310,7 +11378,7 @@
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -11338,7 +11406,7 @@
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -11366,7 +11434,7 @@
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -11394,7 +11462,7 @@
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -11422,7 +11490,7 @@
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -11450,7 +11518,7 @@
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -11478,7 +11546,7 @@
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -11506,7 +11574,7 @@
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -11534,7 +11602,7 @@
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -11562,7 +11630,7 @@
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -11590,7 +11658,7 @@
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -11618,7 +11686,7 @@
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -11646,7 +11714,7 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -11674,7 +11742,7 @@
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -11702,7 +11770,7 @@
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -11730,7 +11798,7 @@
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -11758,7 +11826,7 @@
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -11786,7 +11854,7 @@
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -11814,7 +11882,7 @@
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -11842,7 +11910,7 @@
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -11870,7 +11938,7 @@
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -11898,7 +11966,7 @@
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -11926,7 +11994,7 @@
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -11954,7 +12022,7 @@
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -11982,7 +12050,7 @@
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -12010,7 +12078,7 @@
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -12038,7 +12106,7 @@
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -12066,7 +12134,7 @@
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -12094,7 +12162,7 @@
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -12122,7 +12190,7 @@
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -12150,7 +12218,7 @@
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -12178,7 +12246,7 @@
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -12206,790 +12274,788 @@
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="949">
   <si>
     <t>list_name</t>
   </si>
@@ -757,9 +757,6 @@
     <t>Skype ID</t>
   </si>
   <si>
-    <t>required_message</t>
-  </si>
-  <si>
     <t>nationalities</t>
   </si>
   <si>
@@ -2273,13 +2270,625 @@
   </si>
   <si>
     <t>Enregistreur</t>
+  </si>
+  <si>
+    <t>ID Parent</t>
+  </si>
+  <si>
+    <t>Type de personne</t>
+  </si>
+  <si>
+    <t>Nom complet</t>
+  </si>
+  <si>
+    <t>Nom court</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>Informations du voyageur</t>
+  </si>
+  <si>
+    <t>Nationalité</t>
+  </si>
+  <si>
+    <t>Veuillez préciser la nationalité</t>
+  </si>
+  <si>
+    <t>Numéro de passeport</t>
+  </si>
+  <si>
+    <t>Adresse du domicile</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Adresse électronique</t>
+  </si>
+  <si>
+    <t>ID Skype</t>
+  </si>
+  <si>
+    <t>Âge</t>
+  </si>
+  <si>
+    <t>Veuillez entrer votre date de naissance</t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>Mois</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone primaire</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone secondaire</t>
+  </si>
+  <si>
+    <t>Specifiez</t>
+  </si>
+  <si>
+    <t>ID externe</t>
+  </si>
+  <si>
+    <t>Modifier personne</t>
+  </si>
+  <si>
+    <t>Iles Aland</t>
+  </si>
+  <si>
+    <t>Albanie</t>
+  </si>
+  <si>
+    <t>Algérie</t>
+  </si>
+  <si>
+    <t>Samoa américaines</t>
+  </si>
+  <si>
+    <t>Andorre</t>
+  </si>
+  <si>
+    <t>Antarctique</t>
+  </si>
+  <si>
+    <t>Antigua-et-Barbuda</t>
+  </si>
+  <si>
+    <t>Argentine</t>
+  </si>
+  <si>
+    <t>Arménie</t>
+  </si>
+  <si>
+    <t>Australie</t>
+  </si>
+  <si>
+    <t>L'Autriche</t>
+  </si>
+  <si>
+    <t>Azerbaïdjan</t>
+  </si>
+  <si>
+    <t>Bahreïn</t>
+  </si>
+  <si>
+    <t>Barbade</t>
+  </si>
+  <si>
+    <t>Biélorussie</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>Bénin</t>
+  </si>
+  <si>
+    <t>Bermudes</t>
+  </si>
+  <si>
+    <t>Bhoutan</t>
+  </si>
+  <si>
+    <t>Bolivie, État plurinational de</t>
+  </si>
+  <si>
+    <t>Bonaire, Saint-Eustache et Saba</t>
+  </si>
+  <si>
+    <t>Bosnie Herzégovine</t>
+  </si>
+  <si>
+    <t>Île Bouvet</t>
+  </si>
+  <si>
+    <t>Brésil</t>
+  </si>
+  <si>
+    <t>Territoire britannique de l'océan Indien</t>
+  </si>
+  <si>
+    <t>Bulgarie</t>
+  </si>
+  <si>
+    <t>Cambodge</t>
+  </si>
+  <si>
+    <t>Cameroun</t>
+  </si>
+  <si>
+    <t>Cap-Vert</t>
+  </si>
+  <si>
+    <t>Îles Caïmans</t>
+  </si>
+  <si>
+    <t>République centrafricaine</t>
+  </si>
+  <si>
+    <t>Tchad</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>L'île de noël</t>
+  </si>
+  <si>
+    <t>Îles Cocos (Keeling)</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Congo, la République démocratique du</t>
+  </si>
+  <si>
+    <t>les Îles Cook</t>
+  </si>
+  <si>
+    <t>Croatie</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Chypre</t>
+  </si>
+  <si>
+    <t>République Tchèque</t>
+  </si>
+  <si>
+    <t>Danemark</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>République Dominicaine</t>
+  </si>
+  <si>
+    <t>Equateur</t>
+  </si>
+  <si>
+    <t>Egypte</t>
+  </si>
+  <si>
+    <t>Le Salvador</t>
+  </si>
+  <si>
+    <t>Guinée Équatoriale</t>
+  </si>
+  <si>
+    <t>Érythrée</t>
+  </si>
+  <si>
+    <t>Estonie</t>
+  </si>
+  <si>
+    <t>Ethiopie</t>
+  </si>
+  <si>
+    <t>Îles Falkland (Malvinas)</t>
+  </si>
+  <si>
+    <t>Îles Féroé</t>
+  </si>
+  <si>
+    <t>Fidji</t>
+  </si>
+  <si>
+    <t>Finlande</t>
+  </si>
+  <si>
+    <t>Guyane Française</t>
+  </si>
+  <si>
+    <t>Polynésie française</t>
+  </si>
+  <si>
+    <t>Terres australes françaises</t>
+  </si>
+  <si>
+    <t>Gambie</t>
+  </si>
+  <si>
+    <t>Géorgie</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>Groenland</t>
+  </si>
+  <si>
+    <t>Grenade</t>
+  </si>
+  <si>
+    <t>Guernesey</t>
+  </si>
+  <si>
+    <t>Guinée</t>
+  </si>
+  <si>
+    <t>Guinée-Bissau</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Les îles Heard et McDonald</t>
+  </si>
+  <si>
+    <t>Saint-Siège (Cité du Vatican)</t>
+  </si>
+  <si>
+    <t>Hongrie</t>
+  </si>
+  <si>
+    <t>Islande</t>
+  </si>
+  <si>
+    <t>Inde</t>
+  </si>
+  <si>
+    <t>Indonésie</t>
+  </si>
+  <si>
+    <t>Iran (République islamique d</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Irlande</t>
+  </si>
+  <si>
+    <t>île de Man</t>
+  </si>
+  <si>
+    <t>Israël</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Jamaïque</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>République populaire démocratique de Corée</t>
+  </si>
+  <si>
+    <t>Corée, République de</t>
+  </si>
+  <si>
+    <t>Koweit</t>
+  </si>
+  <si>
+    <t>Kirghizistan</t>
+  </si>
+  <si>
+    <t>République démocratique populaire lao</t>
+  </si>
+  <si>
+    <t>Lettonie</t>
+  </si>
+  <si>
+    <t>Liban</t>
+  </si>
+  <si>
+    <t>Libéria</t>
+  </si>
+  <si>
+    <t>Libye</t>
+  </si>
+  <si>
+    <t>Lituanie</t>
+  </si>
+  <si>
+    <t>Macédoine, l'ex-République yougoslave de</t>
+  </si>
+  <si>
+    <t>Malaisie</t>
+  </si>
+  <si>
+    <t>Malte</t>
+  </si>
+  <si>
+    <t>Iles Marshall</t>
+  </si>
+  <si>
+    <t>Mauritanie</t>
+  </si>
+  <si>
+    <t>Ile Maurice</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>Micronésie, États fédérés de</t>
+  </si>
+  <si>
+    <t>Moldova, République de</t>
+  </si>
+  <si>
+    <t>Mongolie</t>
+  </si>
+  <si>
+    <t>Monténégro</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Namibie</t>
+  </si>
+  <si>
+    <t>Népal</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
+    <t>Nouvelle Calédonie</t>
+  </si>
+  <si>
+    <t>Nouvelle-Zélande</t>
+  </si>
+  <si>
+    <t>l'ile de Norfolk</t>
+  </si>
+  <si>
+    <t>Îles Mariannes du Nord</t>
+  </si>
+  <si>
+    <t>Norvège</t>
+  </si>
+  <si>
+    <t>Territoires palestiniens</t>
+  </si>
+  <si>
+    <t>Papouasie Nouvelle Guinée</t>
+  </si>
+  <si>
+    <t>Pérou</t>
+  </si>
+  <si>
+    <t>Pologne</t>
+  </si>
+  <si>
+    <t>le Portugal</t>
+  </si>
+  <si>
+    <t>Porto Rico</t>
+  </si>
+  <si>
+    <t>Roumanie</t>
+  </si>
+  <si>
+    <t>Fédération Russe</t>
+  </si>
+  <si>
+    <t>Sainte-Hélène, Ascension et Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Saint-Christophe-et-Niévès</t>
+  </si>
+  <si>
+    <t>Sainte-Lucie</t>
+  </si>
+  <si>
+    <t>Saint Martin (partie française)</t>
+  </si>
+  <si>
+    <t>Saint-Pierre-et-Miquelon</t>
+  </si>
+  <si>
+    <t>Saint-Vincent-et-les-Grenadines</t>
+  </si>
+  <si>
+    <t>Saint Marin</t>
+  </si>
+  <si>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Arabie Saoudite</t>
+  </si>
+  <si>
+    <t>Sénégal</t>
+  </si>
+  <si>
+    <t>Serbie</t>
+  </si>
+  <si>
+    <t>les Seychelles</t>
+  </si>
+  <si>
+    <t>Singapour</t>
+  </si>
+  <si>
+    <t>Sint Maarten (partie néerlandaise)</t>
+  </si>
+  <si>
+    <t>Slovaquie</t>
+  </si>
+  <si>
+    <t>Slovénie</t>
+  </si>
+  <si>
+    <t>îles Salomon</t>
+  </si>
+  <si>
+    <t>Somalie</t>
+  </si>
+  <si>
+    <t>Afrique du Sud</t>
+  </si>
+  <si>
+    <t>Géorgie du Sud et les îles Sandwich du Sud</t>
+  </si>
+  <si>
+    <t>Soudan du sud</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Soudan</t>
+  </si>
+  <si>
+    <t>Spitzberg et Jan Mayen</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>République arabe syrienne</t>
+  </si>
+  <si>
+    <t>Taiwan, Province de Chine</t>
+  </si>
+  <si>
+    <t>Tadjikistan</t>
+  </si>
+  <si>
+    <t>Tanzanie, République-Unie de</t>
+  </si>
+  <si>
+    <t>Thaïlande</t>
+  </si>
+  <si>
+    <t>Aller</t>
+  </si>
+  <si>
+    <t>Trinité-et-Tobago</t>
+  </si>
+  <si>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>dinde</t>
+  </si>
+  <si>
+    <t>Turkménistan</t>
+  </si>
+  <si>
+    <t>îles Turques-et-Caïques</t>
+  </si>
+  <si>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Emirats Arabes Unis</t>
+  </si>
+  <si>
+    <t>Royaume-Uni</t>
+  </si>
+  <si>
+    <t>États Unis</t>
+  </si>
+  <si>
+    <t>Îles mineures éloignées des États-Unis</t>
+  </si>
+  <si>
+    <t>Ouzbékistan</t>
+  </si>
+  <si>
+    <t>Venezuela, République bolivarienne du</t>
+  </si>
+  <si>
+    <t>Îles Vierges britanniques</t>
+  </si>
+  <si>
+    <t>Îles Vierges américaines,</t>
+  </si>
+  <si>
+    <t>Wallis et Futuna</t>
+  </si>
+  <si>
+    <t>Sahara occidental</t>
+  </si>
+  <si>
+    <t>Yémen</t>
+  </si>
+  <si>
+    <t>Zambie</t>
+  </si>
+  <si>
+    <t>required_message::en</t>
+  </si>
+  <si>
+    <t>required_message::fr</t>
+  </si>
+  <si>
+    <t>Voulez vous faire une réaffectation ?</t>
+  </si>
+  <si>
+    <t>Recherche une place par</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp; appartient à **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>Place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2319,6 +2928,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2372,7 +2986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2407,6 +3021,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2622,30 +3237,30 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F33" sqref="F33"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="27" width="8.6640625" customWidth="1"/>
+    <col min="3" max="4" width="61.1640625" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2656,43 +3271,47 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
@@ -2703,8 +3322,10 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2716,11 +3337,11 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="12" t="b">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2740,8 +3361,10 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -2775,8 +3398,10 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
@@ -2810,8 +3435,10 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -2845,8 +3472,10 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
@@ -2880,8 +3509,10 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -2911,8 +3542,10 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -2942,8 +3575,10 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2953,9 +3588,9 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2971,8 +3606,10 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
@@ -2985,21 +3622,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -3010,8 +3647,10 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>77</v>
       </c>
@@ -3026,17 +3665,17 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
@@ -3047,8 +3686,10 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>77</v>
       </c>
@@ -3063,11 +3704,11 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -3082,8 +3723,10 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
@@ -3093,22 +3736,24 @@
       <c r="C13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>948</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -3123,8 +3768,10 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
@@ -3137,21 +3784,21 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -3162,8 +3809,10 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
@@ -3176,11 +3825,11 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3199,8 +3848,10 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>105</v>
       </c>
@@ -3210,7 +3861,9 @@
       <c r="C16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>947</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -3234,8 +3887,10 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>108</v>
       </c>
@@ -3246,24 +3901,26 @@
         <v>110</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -3275,8 +3932,10 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>112</v>
       </c>
@@ -3287,17 +3946,19 @@
         <v>114</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -3316,8 +3977,10 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>116</v>
       </c>
@@ -3328,27 +3991,29 @@
         <v>118</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3359,8 +4024,10 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>122</v>
       </c>
@@ -3371,27 +4038,29 @@
         <v>124</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -3402,8 +4071,10 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>127</v>
       </c>
@@ -3414,27 +4085,29 @@
         <v>129</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -3445,8 +4118,10 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>58</v>
       </c>
@@ -3460,8 +4135,8 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
@@ -3476,8 +4151,10 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3487,9 +4164,9 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -3505,8 +4182,10 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
@@ -3516,24 +4195,26 @@
       <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>767</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -3544,8 +4225,10 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>77</v>
       </c>
@@ -3553,22 +4236,24 @@
         <v>134</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="17"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="11"/>
       <c r="N25" s="17"/>
       <c r="O25" s="11"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -3579,8 +4264,10 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>102</v>
       </c>
@@ -3590,24 +4277,26 @@
       <c r="C26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>745</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -3618,8 +4307,10 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>102</v>
       </c>
@@ -3629,26 +4320,28 @@
       <c r="C27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>746</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="Q27" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -3659,8 +4352,10 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>41</v>
       </c>
@@ -3671,9 +4366,11 @@
         <v>138</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -3696,8 +4393,10 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
     </row>
-    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
@@ -3707,26 +4406,28 @@
       <c r="C29" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -3739,8 +4440,10 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
     </row>
-    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>77</v>
       </c>
@@ -3750,20 +4453,20 @@
       <c r="C30" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -3778,8 +4481,10 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>77</v>
       </c>
@@ -3796,11 +4501,11 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -3815,8 +4520,10 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>195</v>
       </c>
@@ -3826,7 +4533,9 @@
       <c r="C32" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="23" t="s">
+        <v>749</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -3835,11 +4544,11 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -3852,8 +4561,10 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
     </row>
-    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>30</v>
       </c>
@@ -3863,14 +4574,16 @@
       <c r="C33" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="23" t="s">
+        <v>750</v>
+      </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="23" t="s">
-        <v>740</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="I33" s="24"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -3890,8 +4603,10 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>221</v>
       </c>
@@ -3902,17 +4617,19 @@
         <v>223</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -3932,8 +4649,10 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>41</v>
       </c>
@@ -3944,23 +4663,25 @@
         <v>227</v>
       </c>
       <c r="D35" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="G35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -3974,8 +4695,10 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>41</v>
       </c>
@@ -3986,13 +4709,15 @@
         <v>231</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -4014,8 +4739,10 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
     </row>
-    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -4025,14 +4752,16 @@
       <c r="C37" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>754</v>
+      </c>
       <c r="E37" s="23"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -4052,8 +4781,10 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
     </row>
-    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>41</v>
       </c>
@@ -4063,14 +4794,16 @@
       <c r="C38" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>755</v>
+      </c>
       <c r="E38" s="23"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -4090,8 +4823,10 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
     </row>
-    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>41</v>
       </c>
@@ -4102,13 +4837,15 @@
         <v>237</v>
       </c>
       <c r="D39" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="F39" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -4130,8 +4867,10 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>41</v>
       </c>
@@ -4141,7 +4880,9 @@
       <c r="C40" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>757</v>
+      </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -4166,8 +4907,10 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
     </row>
-    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -4198,8 +4941,10 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
     </row>
-    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>30</v>
       </c>
@@ -4209,7 +4954,9 @@
       <c r="C42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -4233,8 +4980,10 @@
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
     </row>
-    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>152</v>
       </c>
@@ -4245,27 +4994,29 @@
         <v>154</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -4278,8 +5029,10 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
     </row>
-    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>105</v>
       </c>
@@ -4289,13 +5042,15 @@
       <c r="C44" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>759</v>
+      </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -4315,8 +5070,10 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
     </row>
-    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>161</v>
       </c>
@@ -4327,22 +5084,24 @@
         <v>163</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
@@ -4358,8 +5117,10 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
     </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>161</v>
       </c>
@@ -4369,21 +5130,23 @@
       <c r="C46" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>761</v>
+      </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -4399,8 +5162,10 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>170</v>
       </c>
@@ -4410,14 +5175,16 @@
       <c r="C47" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -4436,8 +5203,10 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
     </row>
-    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -4445,18 +5214,17 @@
         <v>174</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -4471,8 +5239,10 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
     </row>
-    <row r="49" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>77</v>
       </c>
@@ -4487,11 +5257,11 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -4506,8 +5276,10 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
     </row>
-    <row r="50" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>77</v>
       </c>
@@ -4515,18 +5287,18 @@
         <v>178</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="11"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -4541,8 +5313,10 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
     </row>
-    <row r="51" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>77</v>
       </c>
@@ -4557,11 +5331,11 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -4576,8 +5350,10 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
     </row>
-    <row r="52" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>77</v>
       </c>
@@ -4585,18 +5361,18 @@
         <v>182</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="11"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -4611,8 +5387,10 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
     </row>
-    <row r="53" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>105</v>
       </c>
@@ -4624,11 +5402,11 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11" t="b">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -4648,8 +5426,10 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
     </row>
-    <row r="54" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>58</v>
       </c>
@@ -4679,8 +5459,10 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
     </row>
-    <row r="55" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>186</v>
       </c>
@@ -4690,19 +5472,21 @@
       <c r="C55" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="11" t="b">
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="L55" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
@@ -4718,8 +5502,10 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
     </row>
-    <row r="56" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>186</v>
       </c>
@@ -4729,19 +5515,21 @@
       <c r="C56" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>764</v>
+      </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="11" t="b">
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="L56" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
@@ -4757,8 +5545,10 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
     </row>
-    <row r="57" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>192</v>
       </c>
@@ -4768,14 +5558,16 @@
       <c r="C57" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>762</v>
+      </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
@@ -4794,8 +5586,10 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
     </row>
-    <row r="58" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>41</v>
       </c>
@@ -4806,21 +5600,23 @@
         <v>199</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -4833,8 +5629,10 @@
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
       <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
     </row>
-    <row r="59" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>41</v>
       </c>
@@ -4844,7 +5642,9 @@
       <c r="C59" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>766</v>
+      </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -4852,8 +5652,8 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
@@ -4868,8 +5668,10 @@
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
       <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
     </row>
-    <row r="60" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>41</v>
       </c>
@@ -4879,18 +5681,20 @@
       <c r="C60" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
@@ -4905,8 +5709,10 @@
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
       <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
     </row>
-    <row r="61" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>30</v>
       </c>
@@ -4916,18 +5722,17 @@
       <c r="C61" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
@@ -4942,8 +5747,10 @@
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
       <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
     </row>
-    <row r="62" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>102</v>
       </c>
@@ -4957,11 +5764,11 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -4979,8 +5786,10 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
     </row>
-    <row r="63" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>102</v>
       </c>
@@ -4994,11 +5803,11 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
@@ -5016,8 +5825,10 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
     </row>
-    <row r="64" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>102</v>
       </c>
@@ -5031,11 +5842,11 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -5053,8 +5864,10 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
     </row>
-    <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>77</v>
       </c>
@@ -5069,11 +5882,11 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
@@ -5088,8 +5901,10 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
     </row>
-    <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>77</v>
       </c>
@@ -5104,11 +5919,11 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -5123,8 +5938,10 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
     </row>
-    <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>77</v>
       </c>
@@ -5139,11 +5956,11 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
@@ -5158,8 +5975,10 @@
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
     </row>
-    <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>58</v>
       </c>
@@ -5173,8 +5992,8 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
@@ -5189,8 +6008,10 @@
       <c r="Y68" s="17"/>
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="17"/>
     </row>
-    <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>58</v>
       </c>
@@ -5204,8 +6025,8 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
@@ -5220,6 +6041,8 @@
       <c r="Y69" s="17"/>
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5234,8 +6057,8 @@
   </sheetPr>
   <dimension ref="A1:XFD270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="A17:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22078,10 +22901,10 @@
         <v>219</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
@@ -38469,13 +39292,13 @@
         <v>61</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>744</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>745</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="13"/>
@@ -54953,2752 +55776,3502 @@
     </row>
     <row r="21" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>243</v>
+      <c r="D21" s="26" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>245</v>
+      <c r="D22" s="26" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>247</v>
+      <c r="D23" s="26" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>249</v>
+      <c r="D24" s="26" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>251</v>
+      <c r="D25" s="26" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>253</v>
+      <c r="D26" s="26" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>255</v>
+      <c r="D27" s="26" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>257</v>
+      <c r="D28" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>259</v>
+      <c r="D29" s="26" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>261</v>
+      <c r="D30" s="26" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>263</v>
+      <c r="D31" s="26" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="D32" s="26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>265</v>
       </c>
+      <c r="C33" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="14" t="s">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>267</v>
       </c>
+      <c r="C34" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>777</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C34" s="14" t="s">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>269</v>
       </c>
+      <c r="C35" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>778</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="14" t="s">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>271</v>
       </c>
+      <c r="C36" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>779</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="14" t="s">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>273</v>
       </c>
+      <c r="C37" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="14" t="s">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>275</v>
       </c>
+      <c r="C38" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="14" t="s">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>277</v>
       </c>
+      <c r="C39" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="14" t="s">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>279</v>
       </c>
+      <c r="C40" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>781</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="14" t="s">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>281</v>
       </c>
+      <c r="C41" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>782</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" s="14" t="s">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>283</v>
       </c>
+      <c r="C42" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>783</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="14" t="s">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>285</v>
       </c>
+      <c r="C43" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="14" t="s">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>287</v>
       </c>
+      <c r="C44" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>784</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="14" t="s">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>289</v>
       </c>
+      <c r="C45" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>785</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" s="14" t="s">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>291</v>
       </c>
+      <c r="C46" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>786</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" s="14" t="s">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>293</v>
       </c>
+      <c r="C47" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>787</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="14" t="s">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>295</v>
       </c>
+      <c r="C48" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>788</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="14" t="s">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>297</v>
       </c>
+      <c r="C49" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>789</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="14" t="s">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>299</v>
       </c>
+      <c r="C50" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="14" t="s">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>301</v>
       </c>
+      <c r="C51" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>790</v>
+      </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C51" s="14" t="s">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>303</v>
       </c>
+      <c r="C52" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>791</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="14" t="s">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>305</v>
       </c>
+      <c r="C53" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>792</v>
+      </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="14" t="s">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>307</v>
       </c>
+      <c r="C54" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" s="14" t="s">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>309</v>
       </c>
+      <c r="C55" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>793</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C55" s="14" t="s">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>311</v>
       </c>
+      <c r="C56" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>312</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C56" s="14" t="s">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>313</v>
       </c>
+      <c r="C57" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="14" t="s">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>315</v>
       </c>
+      <c r="C58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>794</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" s="14" t="s">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>317</v>
       </c>
+      <c r="C59" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>795</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C59" s="14" t="s">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>319</v>
       </c>
+      <c r="C60" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="14" t="s">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>321</v>
       </c>
+      <c r="C61" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>796</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" s="14" t="s">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>323</v>
       </c>
+      <c r="C62" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>797</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" s="14" t="s">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>325</v>
       </c>
+      <c r="C63" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>798</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="14" t="s">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>327</v>
       </c>
+      <c r="C64" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>799</v>
+      </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C64" s="14" t="s">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>329</v>
       </c>
+      <c r="C65" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>800</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C65" s="14" t="s">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>331</v>
       </c>
+      <c r="C66" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>801</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" s="14" t="s">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>333</v>
       </c>
+      <c r="C67" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>802</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" s="14" t="s">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>335</v>
       </c>
+      <c r="C68" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>803</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="14" t="s">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>337</v>
       </c>
+      <c r="C69" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>804</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>241</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C69" s="14" t="s">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>339</v>
       </c>
+      <c r="C70" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>805</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>241</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C70" s="14" t="s">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>341</v>
       </c>
+      <c r="C71" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="14" t="s">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>343</v>
       </c>
+      <c r="C72" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>806</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C72" s="14" t="s">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>345</v>
       </c>
+      <c r="C73" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>807</v>
+      </c>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" s="14" t="s">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>347</v>
       </c>
+      <c r="C74" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>348</v>
+      </c>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" s="14" t="s">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>349</v>
       </c>
+      <c r="C75" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>241</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C75" s="14" t="s">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>351</v>
       </c>
+      <c r="C76" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>808</v>
+      </c>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C76" s="14" t="s">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>353</v>
       </c>
+      <c r="C77" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C77" s="14" t="s">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>355</v>
       </c>
+      <c r="C78" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>809</v>
+      </c>
     </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>241</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C78" s="14" t="s">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>357</v>
       </c>
+      <c r="C79" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>810</v>
+      </c>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>241</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C79" s="14" t="s">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>359</v>
       </c>
+      <c r="C80" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>811</v>
+      </c>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>241</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="14" t="s">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>361</v>
       </c>
+      <c r="C81" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" s="14" t="s">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>363</v>
       </c>
+      <c r="C82" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C82" s="14" t="s">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>365</v>
       </c>
+      <c r="C83" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>813</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>241</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C83" s="14" t="s">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>367</v>
       </c>
+      <c r="C84" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>814</v>
+      </c>
     </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>241</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="14" t="s">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>369</v>
       </c>
+      <c r="C85" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>815</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>241</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C85" s="14" t="s">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>371</v>
       </c>
+      <c r="C86" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>816</v>
+      </c>
     </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C86" s="14" t="s">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>373</v>
       </c>
+      <c r="C87" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>817</v>
+      </c>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>241</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C87" s="14" t="s">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>375</v>
       </c>
+      <c r="C88" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>818</v>
+      </c>
     </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>241</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="14" t="s">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>377</v>
       </c>
+      <c r="C89" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>241</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C89" s="14" t="s">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>379</v>
       </c>
+      <c r="C90" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>820</v>
+      </c>
     </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C90" s="14" t="s">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>381</v>
       </c>
+      <c r="C91" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>821</v>
+      </c>
     </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>241</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="C91" s="14" t="s">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>383</v>
       </c>
+      <c r="C92" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>822</v>
+      </c>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>241</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" s="14" t="s">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>385</v>
       </c>
+      <c r="C93" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>823</v>
+      </c>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>241</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C93" s="14" t="s">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>387</v>
       </c>
+      <c r="C94" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>824</v>
+      </c>
     </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C94" s="14" t="s">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>389</v>
       </c>
+      <c r="C95" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>825</v>
+      </c>
     </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C95" s="14" t="s">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>391</v>
       </c>
+      <c r="C96" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>241</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96" s="14" t="s">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>393</v>
       </c>
+      <c r="C97" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>826</v>
+      </c>
     </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>241</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="14" t="s">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>395</v>
       </c>
+      <c r="C98" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>827</v>
+      </c>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C98" s="14" t="s">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>240</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>397</v>
       </c>
+      <c r="C99" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>828</v>
+      </c>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>241</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C99" s="14" t="s">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>399</v>
       </c>
+      <c r="C100" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>241</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C100" s="14" t="s">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>401</v>
       </c>
+      <c r="C101" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>829</v>
+      </c>
     </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>241</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C101" s="14" t="s">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>403</v>
       </c>
+      <c r="C102" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>830</v>
+      </c>
     </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>241</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C102" s="14" t="s">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>405</v>
       </c>
+      <c r="C103" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>831</v>
+      </c>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>241</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C103" s="14" t="s">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>240</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>407</v>
       </c>
+      <c r="C104" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>241</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C104" s="14" t="s">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>409</v>
       </c>
+      <c r="C105" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>241</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C105" s="14" t="s">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>411</v>
       </c>
+      <c r="C106" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>832</v>
+      </c>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>241</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C106" s="14" t="s">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>413</v>
       </c>
+      <c r="C107" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>833</v>
+      </c>
     </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>241</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C107" s="14" t="s">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>415</v>
       </c>
+      <c r="C108" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>834</v>
+      </c>
     </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>241</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C108" s="14" t="s">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>417</v>
       </c>
+      <c r="C109" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C109" s="14" t="s">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>419</v>
       </c>
+      <c r="C110" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>241</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="C110" s="14" t="s">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>421</v>
       </c>
+      <c r="C111" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>241</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C111" s="14" t="s">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>423</v>
       </c>
+      <c r="C112" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>835</v>
+      </c>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>241</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C112" s="14" t="s">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>425</v>
       </c>
+      <c r="C113" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>836</v>
+      </c>
     </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="C113" s="14" t="s">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>427</v>
       </c>
+      <c r="C114" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>837</v>
+      </c>
     </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>241</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="C114" s="14" t="s">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>429</v>
       </c>
+      <c r="C115" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>838</v>
+      </c>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>241</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="C115" s="14" t="s">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>431</v>
       </c>
+      <c r="C116" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>839</v>
+      </c>
     </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>241</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="C116" s="14" t="s">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>433</v>
       </c>
+      <c r="C117" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>840</v>
+      </c>
     </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>241</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C117" s="14" t="s">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>435</v>
       </c>
+      <c r="C118" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>841</v>
+      </c>
     </row>
-    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>241</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="C118" s="14" t="s">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>437</v>
       </c>
+      <c r="C119" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>438</v>
+      </c>
     </row>
-    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>241</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="C119" s="14" t="s">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>439</v>
       </c>
+      <c r="C120" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C120" s="14" t="s">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>441</v>
       </c>
+      <c r="C121" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>842</v>
+      </c>
     </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>241</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C121" s="14" t="s">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>443</v>
       </c>
+      <c r="C122" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>843</v>
+      </c>
     </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C122" s="14" t="s">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>445</v>
       </c>
+      <c r="C123" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>844</v>
+      </c>
     </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C123" s="14" t="s">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>447</v>
       </c>
+      <c r="C124" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C124" s="14" t="s">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>449</v>
       </c>
+      <c r="C125" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>846</v>
+      </c>
     </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" s="14" t="s">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>451</v>
       </c>
+      <c r="C126" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>847</v>
+      </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>241</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="C126" s="14" t="s">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>240</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>453</v>
       </c>
+      <c r="C127" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>848</v>
+      </c>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>241</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="C127" s="14" t="s">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>240</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>455</v>
       </c>
+      <c r="C128" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>241</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="C128" s="14" t="s">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>457</v>
       </c>
+      <c r="C129" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>850</v>
+      </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>241</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C129" s="14" t="s">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>459</v>
       </c>
+      <c r="C130" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>851</v>
+      </c>
     </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>241</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="C130" s="14" t="s">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>461</v>
       </c>
+      <c r="C131" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>852</v>
+      </c>
     </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>241</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C131" s="14" t="s">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>463</v>
       </c>
+      <c r="C132" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>853</v>
+      </c>
     </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>241</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="C132" s="14" t="s">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>240</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>465</v>
       </c>
+      <c r="C133" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>241</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C133" s="14" t="s">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>467</v>
       </c>
+      <c r="C134" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>468</v>
+      </c>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>241</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="C134" s="14" t="s">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>469</v>
       </c>
+      <c r="C135" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>241</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="C135" s="14" t="s">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>471</v>
       </c>
+      <c r="C136" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>472</v>
+      </c>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>241</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="C136" s="14" t="s">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>473</v>
       </c>
+      <c r="C137" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>474</v>
+      </c>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>241</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" s="14" t="s">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>475</v>
       </c>
+      <c r="C138" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>854</v>
+      </c>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>241</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="C138" s="14" t="s">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>477</v>
       </c>
+      <c r="C139" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>855</v>
+      </c>
     </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>241</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="C139" s="14" t="s">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>240</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>479</v>
       </c>
+      <c r="C140" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>856</v>
+      </c>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>241</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="C140" s="14" t="s">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>481</v>
       </c>
+      <c r="C141" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>857</v>
+      </c>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>241</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C141" s="14" t="s">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>240</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>483</v>
       </c>
+      <c r="C142" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>241</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C142" s="14" t="s">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>240</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>485</v>
       </c>
+      <c r="C143" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>859</v>
+      </c>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>241</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C143" s="14" t="s">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>487</v>
       </c>
+      <c r="C144" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>241</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C144" s="14" t="s">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>489</v>
       </c>
+      <c r="C145" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="C145" s="14" t="s">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>240</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>491</v>
       </c>
+      <c r="C146" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>241</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="C146" s="14" t="s">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>493</v>
       </c>
+      <c r="C147" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>862</v>
+      </c>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>241</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C147" s="14" t="s">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>495</v>
       </c>
+      <c r="C148" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>241</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="C148" s="14" t="s">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>240</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>497</v>
       </c>
+      <c r="C149" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>863</v>
+      </c>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>241</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C149" s="14" t="s">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>240</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>499</v>
       </c>
+      <c r="C150" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>241</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="C150" s="14" t="s">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>501</v>
       </c>
+      <c r="C151" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>241</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="C151" s="14" t="s">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>503</v>
       </c>
+      <c r="C152" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>241</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C152" s="14" t="s">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>240</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>505</v>
       </c>
+      <c r="C153" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>241</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C153" s="14" t="s">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>507</v>
       </c>
+      <c r="C154" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>508</v>
+      </c>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>241</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="C154" s="14" t="s">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>509</v>
       </c>
+      <c r="C155" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>865</v>
+      </c>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>241</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="C155" s="14" t="s">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>511</v>
       </c>
+      <c r="C156" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>512</v>
+      </c>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>241</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="C156" s="14" t="s">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>513</v>
       </c>
+      <c r="C157" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>241</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="C157" s="14" t="s">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>515</v>
       </c>
+      <c r="C158" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>866</v>
+      </c>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>241</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C158" s="14" t="s">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>240</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>517</v>
       </c>
+      <c r="C159" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>867</v>
+      </c>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>241</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C159" s="14" t="s">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>519</v>
       </c>
+      <c r="C160" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>520</v>
+      </c>
     </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>241</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C160" s="14" t="s">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>521</v>
       </c>
+      <c r="C161" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>868</v>
+      </c>
     </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>241</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="C161" s="14" t="s">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>523</v>
       </c>
+      <c r="C162" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>869</v>
+      </c>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>241</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="C162" s="14" t="s">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>240</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>525</v>
       </c>
+      <c r="C163" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>241</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C163" s="14" t="s">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="13" t="s">
         <v>527</v>
       </c>
+      <c r="C164" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>241</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="C164" s="14" t="s">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>240</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>529</v>
       </c>
+      <c r="C165" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>871</v>
+      </c>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>241</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="C165" s="14" t="s">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>531</v>
       </c>
+      <c r="C166" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>872</v>
+      </c>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>241</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C166" s="14" t="s">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>533</v>
       </c>
+      <c r="C167" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>241</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="C167" s="14" t="s">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>535</v>
       </c>
+      <c r="C168" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>873</v>
+      </c>
     </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>241</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C168" s="14" t="s">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>537</v>
       </c>
+      <c r="C169" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>874</v>
+      </c>
     </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>241</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C169" s="14" t="s">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>240</v>
+      </c>
+      <c r="B170" s="13" t="s">
         <v>539</v>
       </c>
+      <c r="C170" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>241</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="C170" s="14" t="s">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>240</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>541</v>
       </c>
+      <c r="C171" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>875</v>
+      </c>
     </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>241</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C171" s="14" t="s">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" s="13" t="s">
         <v>543</v>
       </c>
+      <c r="C172" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>241</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="C172" s="14" t="s">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" s="13" t="s">
         <v>545</v>
       </c>
+      <c r="C173" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>241</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C173" s="14" t="s">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" s="13" t="s">
         <v>547</v>
       </c>
+      <c r="C174" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>876</v>
+      </c>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C174" s="14" t="s">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" s="13" t="s">
         <v>549</v>
       </c>
+      <c r="C175" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>550</v>
+      </c>
     </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>241</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="C175" s="14" t="s">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="13" t="s">
         <v>551</v>
       </c>
+      <c r="C176" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>877</v>
+      </c>
     </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>241</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C176" s="14" t="s">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>240</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>553</v>
       </c>
+      <c r="C177" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>878</v>
+      </c>
     </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>241</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="C177" s="14" t="s">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>240</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>555</v>
       </c>
+      <c r="C178" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>879</v>
+      </c>
     </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>241</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="C178" s="14" t="s">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>240</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>557</v>
       </c>
+      <c r="C179" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>880</v>
+      </c>
     </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>241</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="C179" s="14" t="s">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>240</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>559</v>
       </c>
+      <c r="C180" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>560</v>
+      </c>
     </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>241</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="C180" s="14" t="s">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" s="13" t="s">
         <v>561</v>
       </c>
+      <c r="C181" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>562</v>
+      </c>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>241</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="C181" s="14" t="s">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" s="13" t="s">
         <v>563</v>
       </c>
+      <c r="C182" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>241</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="C182" s="14" t="s">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>240</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>565</v>
       </c>
+      <c r="C183" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>566</v>
+      </c>
     </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>241</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="C183" s="14" t="s">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" s="13" t="s">
         <v>567</v>
       </c>
+      <c r="C184" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>881</v>
+      </c>
     </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>241</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="C184" s="14" t="s">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>240</v>
+      </c>
+      <c r="B185" s="13" t="s">
         <v>569</v>
       </c>
+      <c r="C185" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>882</v>
+      </c>
     </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>241</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>141</v>
       </c>
       <c r="C186" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>240</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>572</v>
       </c>
+      <c r="C187" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>573</v>
+      </c>
     </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>241</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C187" s="14" t="s">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>240</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>574</v>
       </c>
+      <c r="C188" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>575</v>
+      </c>
     </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>241</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="C188" s="14" t="s">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>240</v>
+      </c>
+      <c r="B189" s="13" t="s">
         <v>576</v>
       </c>
+      <c r="C189" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>577</v>
+      </c>
     </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>241</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="C189" s="14" t="s">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>240</v>
+      </c>
+      <c r="B190" s="13" t="s">
         <v>578</v>
       </c>
+      <c r="C190" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>884</v>
+      </c>
     </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>241</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="C190" s="14" t="s">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>240</v>
+      </c>
+      <c r="B191" s="13" t="s">
         <v>580</v>
       </c>
+      <c r="C191" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>241</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="C191" s="14" t="s">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>240</v>
+      </c>
+      <c r="B192" s="13" t="s">
         <v>582</v>
       </c>
+      <c r="C192" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>885</v>
+      </c>
     </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>241</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C192" s="14" t="s">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>240</v>
+      </c>
+      <c r="B193" s="13" t="s">
         <v>584</v>
       </c>
+      <c r="C193" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>585</v>
+      </c>
     </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>241</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="C193" s="14" t="s">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>240</v>
+      </c>
+      <c r="B194" s="13" t="s">
         <v>586</v>
       </c>
+      <c r="C194" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>886</v>
+      </c>
     </row>
-    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>241</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="C194" s="14" t="s">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195" s="13" t="s">
         <v>588</v>
       </c>
+      <c r="C195" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>241</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="C195" s="14" t="s">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>240</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>590</v>
       </c>
+      <c r="C196" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>241</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="C196" s="14" t="s">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>240</v>
+      </c>
+      <c r="B197" s="13" t="s">
         <v>592</v>
       </c>
+      <c r="C197" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>887</v>
+      </c>
     </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>241</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="C197" s="14" t="s">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>240</v>
+      </c>
+      <c r="B198" s="13" t="s">
         <v>594</v>
       </c>
+      <c r="C198" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>241</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="C198" s="14" t="s">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>240</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>596</v>
       </c>
+      <c r="C199" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>889</v>
+      </c>
     </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>241</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="C199" s="14" t="s">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>240</v>
+      </c>
+      <c r="B200" s="13" t="s">
         <v>598</v>
       </c>
+      <c r="C200" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>241</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="C200" s="14" t="s">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>240</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>600</v>
       </c>
+      <c r="C201" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>241</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="C201" s="14" t="s">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>602</v>
       </c>
+      <c r="C202" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>890</v>
+      </c>
     </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>241</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="C202" s="14" t="s">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>240</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>604</v>
       </c>
+      <c r="C203" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>891</v>
+      </c>
     </row>
-    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>241</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="C203" s="14" t="s">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>240</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>606</v>
       </c>
+      <c r="C204" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>607</v>
+      </c>
     </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>241</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="C204" s="14" t="s">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>240</v>
+      </c>
+      <c r="B205" s="13" t="s">
         <v>608</v>
       </c>
+      <c r="C205" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>609</v>
+      </c>
     </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>241</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="C205" s="14" t="s">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>240</v>
+      </c>
+      <c r="B206" s="13" t="s">
         <v>610</v>
       </c>
+      <c r="C206" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="D206" s="26" t="s">
+        <v>892</v>
+      </c>
     </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>241</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="C206" s="14" t="s">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>612</v>
       </c>
+      <c r="C207" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>893</v>
+      </c>
     </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>241</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="C207" s="14" t="s">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>240</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>614</v>
       </c>
+      <c r="C208" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>894</v>
+      </c>
     </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>241</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="C208" s="14" t="s">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>240</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>616</v>
       </c>
+      <c r="C209" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>895</v>
+      </c>
     </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>241</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="C209" s="14" t="s">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>240</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>618</v>
       </c>
+      <c r="C210" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>896</v>
+      </c>
     </row>
-    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>241</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="C210" s="14" t="s">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>240</v>
+      </c>
+      <c r="B211" s="13" t="s">
         <v>620</v>
       </c>
+      <c r="C211" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>897</v>
+      </c>
     </row>
-    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>241</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="C211" s="14" t="s">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>240</v>
+      </c>
+      <c r="B212" s="13" t="s">
         <v>622</v>
       </c>
+      <c r="C212" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>623</v>
+      </c>
     </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>241</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C212" s="14" t="s">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>240</v>
+      </c>
+      <c r="B213" s="13" t="s">
         <v>624</v>
       </c>
+      <c r="C213" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>898</v>
+      </c>
     </row>
-    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>241</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="C213" s="14" t="s">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>240</v>
+      </c>
+      <c r="B214" s="13" t="s">
         <v>626</v>
       </c>
+      <c r="C214" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>899</v>
+      </c>
     </row>
-    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>241</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="C214" s="14" t="s">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>240</v>
+      </c>
+      <c r="B215" s="13" t="s">
         <v>628</v>
       </c>
+      <c r="C215" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D215" s="26" t="s">
+        <v>900</v>
+      </c>
     </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>241</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C215" s="14" t="s">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>240</v>
+      </c>
+      <c r="B216" s="13" t="s">
         <v>630</v>
       </c>
+      <c r="C216" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>901</v>
+      </c>
     </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>241</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="C216" s="14" t="s">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>240</v>
+      </c>
+      <c r="B217" s="13" t="s">
         <v>632</v>
       </c>
+      <c r="C217" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>902</v>
+      </c>
     </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>241</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C217" s="14" t="s">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>240</v>
+      </c>
+      <c r="B218" s="13" t="s">
         <v>634</v>
       </c>
+      <c r="C218" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>903</v>
+      </c>
     </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>241</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="C218" s="14" t="s">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>240</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>636</v>
       </c>
+      <c r="C219" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>637</v>
+      </c>
     </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>241</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="C219" s="14" t="s">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>240</v>
+      </c>
+      <c r="B220" s="13" t="s">
         <v>638</v>
       </c>
+      <c r="C220" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>241</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="C220" s="14" t="s">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>240</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>640</v>
       </c>
+      <c r="C221" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>905</v>
+      </c>
     </row>
-    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>241</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="C221" s="14" t="s">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>240</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>642</v>
       </c>
+      <c r="C222" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>241</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C222" s="14" t="s">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B223" s="13" t="s">
         <v>644</v>
       </c>
+      <c r="C223" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>907</v>
+      </c>
     </row>
-    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>241</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="C223" s="14" t="s">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="13" t="s">
         <v>646</v>
       </c>
+      <c r="C224" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>908</v>
+      </c>
     </row>
-    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>241</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="C224" s="14" t="s">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>240</v>
+      </c>
+      <c r="B225" s="13" t="s">
         <v>648</v>
       </c>
+      <c r="C225" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>909</v>
+      </c>
     </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>241</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="C225" s="14" t="s">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>240</v>
+      </c>
+      <c r="B226" s="13" t="s">
         <v>650</v>
       </c>
+      <c r="C226" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>910</v>
+      </c>
     </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>241</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>651</v>
-      </c>
-      <c r="C226" s="14" t="s">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="13" t="s">
         <v>652</v>
       </c>
+      <c r="C227" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D227" s="26" t="s">
+        <v>911</v>
+      </c>
     </row>
-    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>241</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="C227" s="14" t="s">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="13" t="s">
         <v>654</v>
       </c>
+      <c r="C228" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>912</v>
+      </c>
     </row>
-    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>241</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="C228" s="14" t="s">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>656</v>
       </c>
+      <c r="C229" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D229" s="26" t="s">
+        <v>913</v>
+      </c>
     </row>
-    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>241</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="C229" s="14" t="s">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>240</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>658</v>
       </c>
+      <c r="C230" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D230" s="26" t="s">
+        <v>659</v>
+      </c>
     </row>
-    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>241</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="C230" s="14" t="s">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>240</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>660</v>
       </c>
+      <c r="C231" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D231" s="26" t="s">
+        <v>914</v>
+      </c>
     </row>
-    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>241</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="C231" s="14" t="s">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>662</v>
       </c>
+      <c r="C232" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D232" s="26" t="s">
+        <v>663</v>
+      </c>
     </row>
-    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>241</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="C232" s="14" t="s">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>664</v>
       </c>
+      <c r="C233" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="D233" s="26" t="s">
+        <v>915</v>
+      </c>
     </row>
-    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>241</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="C233" s="14" t="s">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" s="13" t="s">
         <v>666</v>
       </c>
+      <c r="C234" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D234" s="26" t="s">
+        <v>667</v>
+      </c>
     </row>
-    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="C234" s="14" t="s">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" s="13" t="s">
         <v>668</v>
       </c>
+      <c r="C235" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="D235" s="26" t="s">
+        <v>916</v>
+      </c>
     </row>
-    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>241</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="C235" s="14" t="s">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="13" t="s">
         <v>670</v>
       </c>
+      <c r="C236" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="D236" s="26" t="s">
+        <v>917</v>
+      </c>
     </row>
-    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="C236" s="14" t="s">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="13" t="s">
         <v>672</v>
       </c>
+      <c r="C237" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="D237" s="26" t="s">
+        <v>918</v>
+      </c>
     </row>
-    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="C237" s="14" t="s">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" s="13" t="s">
         <v>674</v>
       </c>
+      <c r="C238" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D238" s="26" t="s">
+        <v>919</v>
+      </c>
     </row>
-    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>241</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="C238" s="14" t="s">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="13" t="s">
         <v>676</v>
       </c>
+      <c r="C239" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D239" s="26" t="s">
+        <v>920</v>
+      </c>
     </row>
-    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="C239" s="14" t="s">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="13" t="s">
         <v>678</v>
       </c>
+      <c r="C240" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="D240" s="26" t="s">
+        <v>921</v>
+      </c>
     </row>
-    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="C240" s="14" t="s">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="13" t="s">
         <v>680</v>
       </c>
+      <c r="C241" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>922</v>
+      </c>
     </row>
-    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C241" s="14" t="s">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="13" t="s">
         <v>682</v>
       </c>
+      <c r="C242" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>683</v>
+      </c>
     </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="C242" s="14" t="s">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243" s="13" t="s">
         <v>684</v>
       </c>
+      <c r="C243" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>923</v>
+      </c>
     </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>241</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="C243" s="14" t="s">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244" s="13" t="s">
         <v>686</v>
       </c>
+      <c r="C244" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>687</v>
+      </c>
     </row>
-    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>241</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="C244" s="14" t="s">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" s="13" t="s">
         <v>688</v>
       </c>
+      <c r="C245" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>689</v>
+      </c>
     </row>
-    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>241</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="C245" s="14" t="s">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B246" s="13" t="s">
         <v>690</v>
       </c>
+      <c r="C246" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="D246" s="26" t="s">
+        <v>924</v>
+      </c>
     </row>
-    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>241</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C246" s="14" t="s">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>240</v>
+      </c>
+      <c r="B247" s="13" t="s">
         <v>692</v>
       </c>
+      <c r="C247" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D247" s="26" t="s">
+        <v>925</v>
+      </c>
     </row>
-    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>241</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="C247" s="14" t="s">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B248" s="13" t="s">
         <v>694</v>
       </c>
+      <c r="C248" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>926</v>
+      </c>
     </row>
-    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>241</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="C248" s="14" t="s">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>240</v>
+      </c>
+      <c r="B249" s="13" t="s">
         <v>696</v>
       </c>
+      <c r="C249" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>927</v>
+      </c>
     </row>
-    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>241</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="C249" s="14" t="s">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>240</v>
+      </c>
+      <c r="B250" s="13" t="s">
         <v>698</v>
       </c>
+      <c r="C250" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D250" s="26" t="s">
+        <v>928</v>
+      </c>
     </row>
-    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>241</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="C250" s="14" t="s">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>240</v>
+      </c>
+      <c r="B251" s="13" t="s">
         <v>700</v>
       </c>
+      <c r="C251" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>701</v>
+      </c>
     </row>
-    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>241</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C251" s="14" t="s">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>240</v>
+      </c>
+      <c r="B252" s="13" t="s">
         <v>702</v>
       </c>
+      <c r="C252" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>241</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="C252" s="14" t="s">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>240</v>
+      </c>
+      <c r="B253" s="13" t="s">
         <v>704</v>
       </c>
+      <c r="C253" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="D253" s="26" t="s">
+        <v>705</v>
+      </c>
     </row>
-    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>241</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="C253" s="14" t="s">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>240</v>
+      </c>
+      <c r="B254" s="13" t="s">
         <v>706</v>
       </c>
+      <c r="C254" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>930</v>
+      </c>
     </row>
-    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>241</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="C254" s="14" t="s">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>240</v>
+      </c>
+      <c r="B255" s="13" t="s">
         <v>708</v>
       </c>
+      <c r="C255" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>931</v>
+      </c>
     </row>
-    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>241</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="C255" s="14" t="s">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>240</v>
+      </c>
+      <c r="B256" s="13" t="s">
         <v>710</v>
       </c>
+      <c r="C256" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>932</v>
+      </c>
     </row>
-    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>241</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="C256" s="14" t="s">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="13" t="s">
         <v>712</v>
       </c>
+      <c r="C257" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>933</v>
+      </c>
     </row>
-    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>241</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="C257" s="14" t="s">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>240</v>
+      </c>
+      <c r="B258" s="13" t="s">
         <v>714</v>
       </c>
+      <c r="C258" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="D258" s="26" t="s">
+        <v>715</v>
+      </c>
     </row>
-    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>241</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="C258" s="14" t="s">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>240</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>716</v>
       </c>
+      <c r="C259" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>934</v>
+      </c>
     </row>
-    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>241</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="C259" s="14" t="s">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>240</v>
+      </c>
+      <c r="B260" s="13" t="s">
         <v>718</v>
       </c>
+      <c r="C260" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="D260" s="26" t="s">
+        <v>719</v>
+      </c>
     </row>
-    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>241</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="C260" s="14" t="s">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>240</v>
+      </c>
+      <c r="B261" s="13" t="s">
         <v>720</v>
       </c>
+      <c r="C261" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>935</v>
+      </c>
     </row>
-    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>241</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="C261" s="14" t="s">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>722</v>
       </c>
+      <c r="C262" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D262" s="26" t="s">
+        <v>723</v>
+      </c>
     </row>
-    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>241</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="C262" s="14" t="s">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" s="13" t="s">
         <v>724</v>
       </c>
+      <c r="C263" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D263" s="26" t="s">
+        <v>936</v>
+      </c>
     </row>
-    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>241</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="C263" s="14" t="s">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>240</v>
+      </c>
+      <c r="B264" s="13" t="s">
         <v>726</v>
       </c>
+      <c r="C264" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="D264" s="26" t="s">
+        <v>937</v>
+      </c>
     </row>
-    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>241</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="C264" s="14" t="s">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>240</v>
+      </c>
+      <c r="B265" s="13" t="s">
         <v>728</v>
       </c>
+      <c r="C265" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>938</v>
+      </c>
     </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>241</v>
-      </c>
-      <c r="B265" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="C265" s="14" t="s">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>240</v>
+      </c>
+      <c r="B266" s="13" t="s">
         <v>730</v>
       </c>
+      <c r="C266" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>939</v>
+      </c>
     </row>
-    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>241</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="C266" s="14" t="s">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>240</v>
+      </c>
+      <c r="B267" s="13" t="s">
         <v>732</v>
       </c>
+      <c r="C267" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="D267" s="26" t="s">
+        <v>940</v>
+      </c>
     </row>
-    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>241</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="C267" s="14" t="s">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>240</v>
+      </c>
+      <c r="B268" s="13" t="s">
         <v>734</v>
       </c>
+      <c r="C268" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="D268" s="26" t="s">
+        <v>941</v>
+      </c>
     </row>
-    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>241</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="C268" s="14" t="s">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>240</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>736</v>
       </c>
+      <c r="C269" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="D269" s="26" t="s">
+        <v>737</v>
+      </c>
     </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>241</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="C269" s="14" t="s">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>240</v>
+      </c>
+      <c r="B270" s="13" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>241</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>739</v>
       </c>
       <c r="C270" s="14" t="s">
         <v>84</v>
+      </c>
+      <c r="D270" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -57773,7 +59346,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-25 21-41</v>
+        <v>2020-03-28 12-21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E7AB0-30FD-F749-823E-64F2823E14B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="947">
   <si>
     <t>list_name</t>
   </si>
@@ -235,28 +244,10 @@
     <t>Superviseur ASC</t>
   </si>
   <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Infirmier</t>
-  </si>
-  <si>
     <t>init</t>
   </si>
   <si>
-    <t>manager</t>
-  </si>
-  <si>
     <t>field-list</t>
-  </si>
-  <si>
-    <t>Facility Manager</t>
-  </si>
-  <si>
-    <t>Personnel médical</t>
   </si>
   <si>
     <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
@@ -2883,12 +2874,24 @@
   <si>
     <t>Place</t>
   </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>scdsc</t>
+  </si>
+  <si>
+    <t>Scdsc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2899,41 +2902,55 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2986,7 +3003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3022,6 +3039,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3031,6 +3054,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3233,13 +3259,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -3277,10 +3303,10 @@
         <v>19</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>20</v>
@@ -3614,7 +3640,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>33</v>
@@ -3625,7 +3651,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3635,7 +3661,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -3652,10 +3678,10 @@
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3668,13 +3694,13 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -3691,10 +3717,10 @@
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -3707,7 +3733,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3731,28 +3757,28 @@
         <v>41</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3787,7 +3813,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3797,7 +3823,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -3828,7 +3854,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3853,16 +3879,16 @@
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3892,25 +3918,25 @@
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -3937,27 +3963,27 @@
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3982,27 +4008,27 @@
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -4012,7 +4038,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -4029,27 +4055,27 @@
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -4059,7 +4085,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -4076,27 +4102,27 @@
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -4106,7 +4132,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -4190,20 +4216,20 @@
         <v>30</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -4213,7 +4239,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -4230,10 +4256,10 @@
     </row>
     <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
@@ -4248,7 +4274,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="11"/>
@@ -4269,16 +4295,16 @@
     </row>
     <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -4286,7 +4312,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -4295,7 +4321,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -4312,7 +4338,7 @@
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>1</v>
@@ -4321,7 +4347,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -4329,7 +4355,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -4337,10 +4363,10 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -4363,13 +4389,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -4401,16 +4427,16 @@
         <v>41</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -4418,15 +4444,15 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -4445,17 +4471,17 @@
     </row>
     <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -4465,7 +4491,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -4486,13 +4512,13 @@
     </row>
     <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -4504,7 +4530,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -4525,16 +4551,16 @@
     </row>
     <row r="32" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -4547,7 +4573,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -4569,19 +4595,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="23" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="11"/>
@@ -4608,27 +4634,27 @@
     </row>
     <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="11"/>
       <c r="I34" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -4657,23 +4683,23 @@
         <v>41</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -4703,19 +4729,19 @@
         <v>41</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="11"/>
@@ -4747,20 +4773,20 @@
         <v>41</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -4789,20 +4815,20 @@
         <v>41</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -4831,19 +4857,19 @@
         <v>41</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="11"/>
@@ -4875,13 +4901,13 @@
         <v>41</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -4949,7 +4975,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>33</v>
@@ -4985,37 +5011,37 @@
     </row>
     <row r="43" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -5034,22 +5060,22 @@
     </row>
     <row r="44" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -5075,32 +5101,32 @@
     </row>
     <row r="45" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -5122,30 +5148,30 @@
     </row>
     <row r="46" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -5167,23 +5193,23 @@
     </row>
     <row r="47" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -5208,10 +5234,10 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" s="11"/>
       <c r="E48" s="11"/>
@@ -5223,7 +5249,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
@@ -5244,10 +5270,10 @@
     </row>
     <row r="49" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -5260,7 +5286,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
@@ -5281,10 +5307,10 @@
     </row>
     <row r="50" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -5297,7 +5323,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
@@ -5318,10 +5344,10 @@
     </row>
     <row r="51" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -5334,7 +5360,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
@@ -5355,10 +5381,10 @@
     </row>
     <row r="52" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -5371,7 +5397,7 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -5392,13 +5418,13 @@
     </row>
     <row r="53" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -5464,16 +5490,16 @@
     </row>
     <row r="55" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -5485,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5507,16 +5533,16 @@
     </row>
     <row r="56" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -5528,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5550,23 +5576,23 @@
     </row>
     <row r="57" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -5594,21 +5620,21 @@
         <v>41</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
@@ -5637,13 +5663,13 @@
         <v>41</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -5679,17 +5705,17 @@
         <v>29</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -5717,7 +5743,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>33</v>
@@ -5727,7 +5753,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -5752,10 +5778,10 @@
     </row>
     <row r="62" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>33</v>
@@ -5767,7 +5793,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
@@ -5791,10 +5817,10 @@
     </row>
     <row r="63" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>33</v>
@@ -5806,7 +5832,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -5830,10 +5856,10 @@
     </row>
     <row r="64" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>33</v>
@@ -5845,7 +5871,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -5869,10 +5895,10 @@
     </row>
     <row r="65" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -5885,7 +5911,7 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
@@ -5906,10 +5932,10 @@
     </row>
     <row r="66" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -5922,7 +5948,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
@@ -5943,10 +5969,10 @@
     </row>
     <row r="67" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -5959,7 +5985,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
@@ -6051,14 +6077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:XFD270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6384,14 +6410,14 @@
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
+      <c r="B11" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>944</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>70</v>
+        <v>944</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -6415,14 +6441,14 @@
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>74</v>
+      <c r="B12" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>946</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>75</v>
+        <v>946</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -6447,13 +6473,13 @@
         <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -6478,13 +6504,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -6509,13 +6535,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
@@ -22898,13 +22924,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
@@ -39292,13 +39318,13 @@
         <v>61</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="13"/>
@@ -55683,16 +55709,16 @@
     </row>
     <row r="18" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -55714,16 +55740,16 @@
     </row>
     <row r="19" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -55745,16 +55771,16 @@
     </row>
     <row r="20" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -55776,3502 +55802,3502 @@
     </row>
     <row r="21" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>246</v>
-      </c>
       <c r="D23" s="26" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D168" s="26" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D169" s="26" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D170" s="26" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D171" s="26" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D172" s="26" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D178" s="26" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D180" s="26" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D186" s="26" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -59281,8 +59307,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
@@ -59346,7 +59372,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-28 12-21</v>
+        <v>2020-04-02 15-53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
